--- a/Контакты.xlsx
+++ b/Контакты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk\Arduino проекты\HPA control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\HPA_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34678D5-E07E-48FC-B2DE-2CDCE528128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB0CEC-3737-4DED-B565-9F45F3A87A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8C7F1C0-CE14-4469-8E92-05870B4DF753}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Label</t>
   </si>
@@ -199,13 +199,16 @@
   </si>
   <si>
     <t>переключатель режимов огня</t>
+  </si>
+  <si>
+    <t>Электронный предохранитель по необходимости</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -286,11 +302,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -321,7 +349,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -667,35 +705,35 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="28.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
@@ -713,25 +751,28 @@
       <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="30">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="F5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="28.5">
       <c r="A6" s="2" t="s">
@@ -750,35 +791,35 @@
         <v>19</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -799,7 +840,7 @@
       <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -820,7 +861,7 @@
       <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -841,38 +882,38 @@
       <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
@@ -890,35 +931,35 @@
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -937,7 +978,7 @@
       <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
@@ -948,6 +989,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -956,14 +1005,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
